--- a/TELARANA.xlsx
+++ b/TELARANA.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>condicion inicial (Xn)</t>
   </si>
@@ -51,6 +52,15 @@
   </si>
   <si>
     <t>Xn</t>
+  </si>
+  <si>
+    <t>Xn * a</t>
+  </si>
+  <si>
+    <t>1 - Xn</t>
+  </si>
+  <si>
+    <t>(a *Xn)*(1-Xn)</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1451,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1765,7 +1774,447 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$I$6:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$J$6:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.0000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3962634015954637E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2217304763960306E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0471975511965976E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7266462599716477E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9813170079773184E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.235987755982989E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4906585039886583E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7453292519943292E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7453292519943311E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.4906585039886583E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.235987755982989E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.9813170079773166E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.7266462599716477E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.0471975511965978E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.2217304763960306E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.3962634015954637E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.5707963267948963E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.7453292519943295E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79C8-4AB8-95A4-4F3136E47EEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="413121872"/>
+        <c:axId val="413114328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="413121872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413114328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="413114328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413121872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2321,6 +2770,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2342,6 +3307,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40133645-68A9-4AD5-85A0-702DFD6C3FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EABE583-3400-4886-B23A-AE35F347CCC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +3667,628 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>PI()/180</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2">
+        <f>C$1*PI()</f>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="F6" s="2">
+        <f>SIN(C$3*E6)</f>
+        <v>1.0966007317302568E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <f>F6*C2</f>
+        <v>1.0966007317302568E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.0966007317302568E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <f>G6</f>
+        <v>1.0966007317302568E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f>G6*PI()</f>
+        <v>3.4450728027249661E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SIN(C$3*E7)</f>
+        <v>6.0127859755395305E-4</v>
+      </c>
+      <c r="G7" s="4">
+        <f>F7*C$3</f>
+        <v>1.0494291249090403E-5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.0966007317302568E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.0494291249090403E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8:D25" si="0">G7</f>
+        <v>1.0494291249090403E-5</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E25" si="1">G7*PI()</f>
+        <v>3.2968788292774067E-5</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F25" si="2">SIN(C$3*E8)</f>
+        <v>5.7541390610183599E-7</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" ref="G8:G25" si="3">F8*C$3</f>
+        <v>1.0042867223238528E-8</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.0494291249090403E-5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.0042867223238528E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0042867223238528E-8</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1550597889503884E-8</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5066181414461683E-10</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>9.6108617218286464E-12</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.0042867223238528E-8</v>
+      </c>
+      <c r="J9" s="4">
+        <v>9.6108617218286464E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6108617218286464E-12</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0193412579964225E-11</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2697446193345143E-13</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>9.1974394346642505E-15</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9.6108617218286464E-12</v>
+      </c>
+      <c r="J10" s="4">
+        <v>9.1974394346642505E-15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1974394346642505E-15</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8894608159778268E-14</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0430604846175055E-16</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="3"/>
+        <v>8.8018009833796313E-18</v>
+      </c>
+      <c r="I11" s="4">
+        <v>9.1974394346642505E-15</v>
+      </c>
+      <c r="J11" s="4">
+        <v>8.8018009833796313E-18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>8.8018009833796313E-18</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7651673307744865E-17</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8261274290597916E-19</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="3"/>
+        <v>8.4231813757902422E-21</v>
+      </c>
+      <c r="I12" s="4">
+        <v>8.8018009833796313E-18</v>
+      </c>
+      <c r="J12" s="4">
+        <v>8.4231813757902422E-21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>8.4231813757902422E-21</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6462204730036992E-20</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6185259987596273E-22</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
+        <v>8.0608485267315043E-24</v>
+      </c>
+      <c r="I13" s="4">
+        <v>8.4231813757902422E-21</v>
+      </c>
+      <c r="J13" s="4">
+        <v>8.0608485267315043E-24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0608485267315043E-24</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5323902513279801E-23</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>4.419854783107996E-25</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="3"/>
+        <v>7.7141018425254379E-27</v>
+      </c>
+      <c r="I14" s="4">
+        <v>8.0608485267315043E-24</v>
+      </c>
+      <c r="J14" s="4">
+        <v>7.7141018425254379E-27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7141018425254379E-27</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4234565677521404E-26</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2297296386355881E-28</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>7.3822708663380967E-30</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7.7141018425254379E-27</v>
+      </c>
+      <c r="J15" s="4">
+        <v>7.3822708663380967E-30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3822708663380967E-30</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3192087920497721E-29</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0477829462469014E-31</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="3"/>
+        <v>7.0647139818085086E-33</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7.3822708663380967E-30</v>
+      </c>
+      <c r="J16" s="4">
+        <v>7.0647139818085086E-33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0647139818085086E-33</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2194453544962705E-32</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8736629004052656E-34</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="3"/>
+        <v>6.760817172442507E-36</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7.0647139818085086E-33</v>
+      </c>
+      <c r="J17" s="4">
+        <v>6.760817172442507E-36</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>6.760817172442507E-36</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1239733561209098E-35</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7070328288943931E-37</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="3"/>
+        <v>6.4699928343726751E-39</v>
+      </c>
+      <c r="I18" s="4">
+        <v>6.760817172442507E-36</v>
+      </c>
+      <c r="J18" s="4">
+        <v>6.4699928343726751E-39</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4699928343726751E-39</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0326081957243799E-38</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5475705418411756E-40</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="3"/>
+        <v>6.191678640188777E-42</v>
+      </c>
+      <c r="I19" s="4">
+        <v>6.4699928343726751E-39</v>
+      </c>
+      <c r="J19" s="4">
+        <v>6.191678640188777E-42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>6.191678640188777E-42</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9451732129405902E-41</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3949677087410069E-43</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="3"/>
+        <v>5.9253364516418441E-45</v>
+      </c>
+      <c r="I20" s="4">
+        <v>6.191678640188777E-42</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5.9253364516418441E-45</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>5.9253364516418441E-45</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8614993466525831E-44</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2489292622810861E-46</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="3"/>
+        <v>5.6704512791195368E-48</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5.9253364516418441E-45</v>
+      </c>
+      <c r="J21" s="4">
+        <v>5.6704512791195368E-48</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6704512791195368E-48</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7814248081020783E-47</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1091728278089425E-49</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="3"/>
+        <v>5.4265302858808765E-51</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5.6704512791195368E-48</v>
+      </c>
+      <c r="J22" s="4">
+        <v>5.4265302858808765E-51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4265302858808765E-51</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7047947680605881E-50</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9754281773430328E-52</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="3"/>
+        <v>5.1931018351249668E-54</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5.4265302858808765E-51</v>
+      </c>
+      <c r="J23" s="4">
+        <v>5.1931018351249668E-54</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1931018351249668E-54</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6314610574572267E-53</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8474367070696993E-55</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="3"/>
+        <v>4.969714578051155E-57</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5.1931018351249668E-54</v>
+      </c>
+      <c r="J24" s="4">
+        <v>4.969714578051155E-57</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>4.969714578051155E-57</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5612818808843606E-56</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>2.724950937316201E-58</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>4.7559365811473324E-60</v>
+      </c>
+      <c r="I25" s="4">
+        <v>4.969714578051155E-57</v>
+      </c>
+      <c r="J25" s="4">
+        <v>4.7559365811473324E-60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6:J25"/>
     </sheetView>
   </sheetViews>
@@ -2717,13 +4344,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>8</v>
@@ -2737,25 +4364,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="2">
-        <f>C$1*PI()</f>
-        <v>0.62831853071795862</v>
+        <f>D6*C2</f>
+        <v>0.1</v>
       </c>
       <c r="F6" s="2">
-        <f>SIN(C$3*E6)</f>
-        <v>1.0966007317302568E-2</v>
+        <f>1-D6</f>
+        <v>0.9</v>
       </c>
       <c r="G6" s="4">
-        <f>F6*C2</f>
-        <v>1.0966007317302568E-2</v>
+        <f>E6*F6</f>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="I6" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="4">
-        <v>1.0966007317302568E-2</v>
+        <v>9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -2763,26 +4390,25 @@
         <v>2</v>
       </c>
       <c r="D7" s="4">
-        <f>G6</f>
-        <v>1.0966007317302568E-2</v>
+        <v>0.2</v>
       </c>
       <c r="E7" s="2">
-        <f>G6*PI()</f>
-        <v>3.4450728027249661E-2</v>
+        <f t="shared" ref="E7:E25" si="0">D7*C3</f>
+        <v>3.4906585039886592E-3</v>
       </c>
       <c r="F7" s="2">
-        <f>SIN(C$3*E7)</f>
-        <v>6.0127859755395305E-4</v>
+        <f t="shared" ref="F7:F25" si="1">1-D7</f>
+        <v>0.8</v>
       </c>
       <c r="G7" s="4">
         <f>F7*C$3</f>
-        <v>1.0494291249090403E-5</v>
+        <v>1.3962634015954637E-2</v>
       </c>
       <c r="I7" s="4">
-        <v>1.0966007317302568E-2</v>
+        <v>0.2</v>
       </c>
       <c r="J7" s="4">
-        <v>1.0494291249090403E-5</v>
+        <v>1.3962634015954637E-2</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -2790,26 +4416,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D25" si="0">G7</f>
-        <v>1.0494291249090403E-5</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:E25" si="1">G7*PI()</f>
-        <v>3.2968788292774067E-5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:F25" si="2">SIN(C$3*E8)</f>
-        <v>5.7541390610183599E-7</v>
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" ref="G8:G25" si="3">F8*C$3</f>
-        <v>1.0042867223238528E-8</v>
+        <f t="shared" ref="G8:G25" si="2">F8*C$3</f>
+        <v>1.2217304763960306E-2</v>
       </c>
       <c r="I8" s="4">
-        <v>1.0494291249090403E-5</v>
+        <v>0.3</v>
       </c>
       <c r="J8" s="4">
-        <v>1.0042867223238528E-8</v>
+        <v>1.2217304763960306E-2</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -2817,26 +4442,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1.0042867223238528E-8</v>
-      </c>
-      <c r="E9" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>3.1550597889503884E-8</v>
-      </c>
-      <c r="F9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="2"/>
-        <v>5.5066181414461683E-10</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="3"/>
-        <v>9.6108617218286464E-12</v>
+        <v>1.0471975511965976E-2</v>
       </c>
       <c r="I9" s="4">
-        <v>1.0042867223238528E-8</v>
+        <v>0.4</v>
       </c>
       <c r="J9" s="4">
-        <v>9.6108617218286464E-12</v>
+        <v>1.0471975511965976E-2</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -2844,26 +4468,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>9.6108617218286464E-12</v>
-      </c>
-      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>3.0193412579964225E-11</v>
-      </c>
-      <c r="F10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
-        <v>5.2697446193345143E-13</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="3"/>
-        <v>9.1974394346642505E-15</v>
+        <v>8.7266462599716477E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>9.6108617218286464E-12</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="4">
-        <v>9.1974394346642505E-15</v>
+        <v>8.7266462599716477E-3</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -2871,26 +4494,25 @@
         <v>6</v>
       </c>
       <c r="D11" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>9.1974394346642505E-15</v>
-      </c>
-      <c r="E11" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>2.8894608159778268E-14</v>
-      </c>
-      <c r="F11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
-        <v>5.0430604846175055E-16</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="3"/>
-        <v>8.8018009833796313E-18</v>
+        <v>6.9813170079773184E-3</v>
       </c>
       <c r="I11" s="4">
-        <v>9.1974394346642505E-15</v>
+        <v>0.6</v>
       </c>
       <c r="J11" s="4">
-        <v>8.8018009833796313E-18</v>
+        <v>6.9813170079773184E-3</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -2898,26 +4520,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>8.8018009833796313E-18</v>
-      </c>
-      <c r="E12" s="2">
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>2.7651673307744865E-17</v>
-      </c>
-      <c r="F12" s="2">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="2"/>
-        <v>4.8261274290597916E-19</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="3"/>
-        <v>8.4231813757902422E-21</v>
+        <v>5.235987755982989E-3</v>
       </c>
       <c r="I12" s="4">
-        <v>8.8018009833796313E-18</v>
+        <v>0.7</v>
       </c>
       <c r="J12" s="4">
-        <v>8.4231813757902422E-21</v>
+        <v>5.235987755982989E-3</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -2925,26 +4546,25 @@
         <v>8</v>
       </c>
       <c r="D13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>8.4231813757902422E-21</v>
-      </c>
-      <c r="E13" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>2.6462204730036992E-20</v>
-      </c>
-      <c r="F13" s="2">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="2"/>
-        <v>4.6185259987596273E-22</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="3"/>
-        <v>8.0608485267315043E-24</v>
+        <v>3.4906585039886583E-3</v>
       </c>
       <c r="I13" s="4">
-        <v>8.4231813757902422E-21</v>
+        <v>0.8</v>
       </c>
       <c r="J13" s="4">
-        <v>8.0608485267315043E-24</v>
+        <v>3.4906585039886583E-3</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -2952,26 +4572,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>8.0608485267315043E-24</v>
-      </c>
-      <c r="E14" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>2.5323902513279801E-23</v>
-      </c>
-      <c r="F14" s="2">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="2"/>
-        <v>4.419854783107996E-25</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="3"/>
-        <v>7.7141018425254379E-27</v>
+        <v>1.7453292519943292E-3</v>
       </c>
       <c r="I14" s="4">
-        <v>8.0608485267315043E-24</v>
+        <v>0.9</v>
       </c>
       <c r="J14" s="4">
-        <v>7.7141018425254379E-27</v>
+        <v>1.7453292519943292E-3</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -2979,26 +4598,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>7.7141018425254379E-27</v>
-      </c>
-      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>2.4234565677521404E-26</v>
-      </c>
-      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="2"/>
-        <v>4.2297296386355881E-28</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="3"/>
-        <v>7.3822708663380967E-30</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>7.7141018425254379E-27</v>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>7.3822708663380967E-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -3006,26 +4624,25 @@
         <v>11</v>
       </c>
       <c r="D16" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>7.3822708663380967E-30</v>
-      </c>
-      <c r="E16" s="2">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>2.3192087920497721E-29</v>
-      </c>
-      <c r="F16" s="2">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="2"/>
-        <v>4.0477829462469014E-31</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="3"/>
-        <v>7.0647139818085086E-33</v>
+        <v>-1.7453292519943311E-3</v>
       </c>
       <c r="I16" s="4">
-        <v>7.3822708663380967E-30</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J16" s="4">
-        <v>7.0647139818085086E-33</v>
+        <v>-1.7453292519943311E-3</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
@@ -3033,26 +4650,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>7.0647139818085086E-33</v>
-      </c>
-      <c r="E17" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>2.2194453544962705E-32</v>
-      </c>
-      <c r="F17" s="2">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="2"/>
-        <v>3.8736629004052656E-34</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="3"/>
-        <v>6.760817172442507E-36</v>
+        <v>-3.4906585039886583E-3</v>
       </c>
       <c r="I17" s="4">
-        <v>7.0647139818085086E-33</v>
+        <v>1.2</v>
       </c>
       <c r="J17" s="4">
-        <v>6.760817172442507E-36</v>
+        <v>-3.4906585039886583E-3</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
@@ -3060,26 +4676,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>6.760817172442507E-36</v>
-      </c>
-      <c r="E18" s="2">
+        <v>11.700000000000001</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>2.1239733561209098E-35</v>
-      </c>
-      <c r="F18" s="2">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="2"/>
-        <v>3.7070328288943931E-37</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="3"/>
-        <v>6.4699928343726751E-39</v>
+        <v>-5.235987755982989E-3</v>
       </c>
       <c r="I18" s="4">
-        <v>6.760817172442507E-36</v>
+        <v>1.3</v>
       </c>
       <c r="J18" s="4">
-        <v>6.4699928343726751E-39</v>
+        <v>-5.235987755982989E-3</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
@@ -3087,26 +4702,25 @@
         <v>14</v>
       </c>
       <c r="D19" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>6.4699928343726751E-39</v>
-      </c>
-      <c r="E19" s="2">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>2.0326081957243799E-38</v>
-      </c>
-      <c r="F19" s="2">
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="2"/>
-        <v>3.5475705418411756E-40</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="3"/>
-        <v>6.191678640188777E-42</v>
+        <v>-6.9813170079773166E-3</v>
       </c>
       <c r="I19" s="4">
-        <v>6.4699928343726751E-39</v>
+        <v>1.4</v>
       </c>
       <c r="J19" s="4">
-        <v>6.191678640188777E-42</v>
+        <v>-6.9813170079773166E-3</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
@@ -3114,26 +4728,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>6.191678640188777E-42</v>
-      </c>
-      <c r="E20" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>1.9451732129405902E-41</v>
-      </c>
-      <c r="F20" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="2"/>
-        <v>3.3949677087410069E-43</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9253364516418441E-45</v>
+        <v>-8.7266462599716477E-3</v>
       </c>
       <c r="I20" s="4">
-        <v>6.191678640188777E-42</v>
+        <v>1.5</v>
       </c>
       <c r="J20" s="4">
-        <v>5.9253364516418441E-45</v>
+        <v>-8.7266462599716477E-3</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
@@ -3141,26 +4754,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>5.9253364516418441E-45</v>
-      </c>
-      <c r="E21" s="2">
+        <v>19.200000000000003</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>1.8614993466525831E-44</v>
-      </c>
-      <c r="F21" s="2">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="2"/>
-        <v>3.2489292622810861E-46</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="3"/>
-        <v>5.6704512791195368E-48</v>
+        <v>-1.0471975511965978E-2</v>
       </c>
       <c r="I21" s="4">
-        <v>5.9253364516418441E-45</v>
+        <v>1.6</v>
       </c>
       <c r="J21" s="4">
-        <v>5.6704512791195368E-48</v>
+        <v>-1.0471975511965978E-2</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
@@ -3168,26 +4780,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>5.6704512791195368E-48</v>
-      </c>
-      <c r="E22" s="2">
+        <v>22.099999999999998</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>1.7814248081020783E-47</v>
-      </c>
-      <c r="F22" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="G22" s="4">
         <f t="shared" si="2"/>
-        <v>3.1091728278089425E-49</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="3"/>
-        <v>5.4265302858808765E-51</v>
+        <v>-1.2217304763960306E-2</v>
       </c>
       <c r="I22" s="4">
-        <v>5.6704512791195368E-48</v>
+        <v>1.7</v>
       </c>
       <c r="J22" s="4">
-        <v>5.4265302858808765E-51</v>
+        <v>-1.2217304763960306E-2</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
@@ -3195,26 +4806,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>5.4265302858808765E-51</v>
-      </c>
-      <c r="E23" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>1.7047947680605881E-50</v>
-      </c>
-      <c r="F23" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="G23" s="4">
         <f t="shared" si="2"/>
-        <v>2.9754281773430328E-52</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="3"/>
-        <v>5.1931018351249668E-54</v>
+        <v>-1.3962634015954637E-2</v>
       </c>
       <c r="I23" s="4">
-        <v>5.4265302858808765E-51</v>
+        <v>1.8</v>
       </c>
       <c r="J23" s="4">
-        <v>5.1931018351249668E-54</v>
+        <v>-1.3962634015954637E-2</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
@@ -3222,26 +4832,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>5.1931018351249668E-54</v>
-      </c>
-      <c r="E24" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>1.6314610574572267E-53</v>
-      </c>
-      <c r="F24" s="2">
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="2"/>
-        <v>2.8474367070696993E-55</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="3"/>
-        <v>4.969714578051155E-57</v>
+        <v>-1.5707963267948963E-2</v>
       </c>
       <c r="I24" s="4">
-        <v>5.1931018351249668E-54</v>
+        <v>1.9</v>
       </c>
       <c r="J24" s="4">
-        <v>4.969714578051155E-57</v>
+        <v>-1.5707963267948963E-2</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
@@ -3249,31 +4858,29 @@
         <v>20</v>
       </c>
       <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>4.969714578051155E-57</v>
-      </c>
-      <c r="E25" s="2">
+        <v>32</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" si="1"/>
-        <v>1.5612818808843606E-56</v>
-      </c>
-      <c r="F25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" si="2"/>
-        <v>2.724950937316201E-58</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="3"/>
-        <v>4.7559365811473324E-60</v>
+        <v>-1.7453292519943295E-2</v>
       </c>
       <c r="I25" s="4">
-        <v>4.969714578051155E-57</v>
+        <v>2</v>
       </c>
       <c r="J25" s="4">
-        <v>4.7559365811473324E-60</v>
+        <v>-1.7453292519943295E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TELARANA.xlsx
+++ b/TELARANA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Martha\ME\GDB\SistemasComplejosParaPrincipiantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa Martha Peralta\Documents\GitHub\SistemasComplejosParaPrincipiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,11 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>condicion inicial (Xn)</t>
   </si>
@@ -54,19 +58,28 @@
     <t>Xn</t>
   </si>
   <si>
-    <t>Xn * a</t>
+    <t>a * x (1 - x)</t>
   </si>
   <si>
-    <t>1 - Xn</t>
+    <t>Iteracion</t>
   </si>
   <si>
-    <t>(a *Xn)*(1-Xn)</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>a*x</t>
+  </si>
+  <si>
+    <t>1-x</t>
+  </si>
+  <si>
+    <t>(a*x) * ( 1 - x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +156,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -217,7 +230,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -278,7 +291,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -339,7 +352,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -400,7 +413,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -461,7 +474,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -522,7 +535,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -587,7 +600,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -652,7 +665,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -717,7 +730,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -782,7 +795,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -847,7 +860,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -912,7 +925,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -979,7 +992,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -1046,7 +1059,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -1113,7 +1126,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -1180,7 +1193,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -1247,7 +1260,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -1314,7 +1327,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -1379,7 +1392,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -1444,7 +1457,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000014-B401-499D-ABB2-946B651A7E14}"/>
             </c:ext>
@@ -1458,11 +1471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="520723592"/>
-        <c:axId val="520719000"/>
+        <c:axId val="377131696"/>
+        <c:axId val="377135616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="520723592"/>
+        <c:axId val="377131696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0000000000000002E-2"/>
@@ -1575,12 +1588,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520719000"/>
+        <c:crossAx val="377135616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520719000"/>
+        <c:axId val="377135616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -1693,7 +1706,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520723592"/>
+        <c:crossAx val="377131696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -1775,7 +1788,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1789,6 +1802,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1821,178 +1835,210 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja2!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9999999999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Hoja2!$I$6:$I$25</c:f>
+              <c:f>Hoja2!$D$6:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Hoja2!$J$6:$J$25</c:f>
+              <c:f>Hoja2!$H$6:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.0000000000000011E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3962634015954637E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2217304763960306E-2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0471975511965976E-2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7266462599716477E-3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9813170079773184E-3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.235987755982989E-3</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4906585039886583E-3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7453292519943292E-3</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.7453292519943311E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.4906585039886583E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-5.235987755982989E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-6.9813170079773166E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-8.7266462599716477E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.0471975511965978E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.2217304763960306E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.3962634015954637E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.5707963267948963E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.7453292519943295E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-79C8-4AB8-95A4-4F3136E47EEE}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2002,30 +2048,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413121872"/>
-        <c:axId val="413114328"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="413121872"/>
+        <c:smooth val="0"/>
+        <c:axId val="378221064"/>
+        <c:axId val="379914208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="378221064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2035,8 +2068,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2063,14 +2096,18 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413114328"/>
+        <c:crossAx val="379914208"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="413114328"/>
+        <c:axId val="379914208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2094,14 +2131,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2125,9 +2156,9 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413121872"/>
+        <c:crossAx val="378221064"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2137,6 +2168,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2771,7 +2834,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2798,8 +2861,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2879,6 +2942,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2889,6 +2957,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2900,7 +2973,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2920,6 +2993,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2932,10 +3008,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2975,23 +3051,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3096,8 +3171,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3229,20 +3304,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3256,17 +3330,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3306,7 +3369,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40133645-68A9-4AD5-85A0-702DFD6C3FF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40133645-68A9-4AD5-85A0-702DFD6C3FF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,27 +3394,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EABE583-3400-4886-B23A-AE35F347CCC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3366,6 +3425,88 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>0.36000000000000004</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>0.64000000000000012</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>0.84</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>0.96</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12">
+            <v>0.96</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13">
+            <v>0.84000000000000008</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14">
+            <v>0.6399999999999999</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15">
+            <v>0.35999999999999993</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4286,597 +4427,335 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J25"/>
+  <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D1" s="1"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>PI()/180</f>
-        <v>1.7453292519943295E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>C6*D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>1-D6</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>E6*F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.1</v>
       </c>
-      <c r="E6" s="2">
-        <f>D6*C2</f>
+      <c r="E7">
+        <f t="shared" ref="E7:E16" si="0">C7*D7</f>
         <v>0.1</v>
       </c>
-      <c r="F6" s="2">
-        <f>1-D6</f>
+      <c r="F7">
+        <f>1-D7</f>
         <v>0.9</v>
       </c>
-      <c r="G6" s="4">
-        <f>E6*F6</f>
+      <c r="G7">
+        <f t="shared" ref="G7:G16" si="1">E7*F7</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="H7">
         <v>0.1</v>
       </c>
-      <c r="J6" s="4">
-        <v>9.0000000000000011E-2</v>
-      </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.2</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" ref="E7:E25" si="0">D7*C3</f>
-        <v>3.4906585039886592E-3</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" ref="F7:F25" si="1">1-D7</f>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F16" si="2">1-D8</f>
         <v>0.8</v>
       </c>
-      <c r="G7" s="4">
-        <f>F7*C$3</f>
-        <v>1.3962634015954637E-2</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="H8">
         <v>0.2</v>
       </c>
-      <c r="J7" s="4">
-        <v>1.3962634015954637E-2</v>
-      </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" ref="G8:G25" si="2">F8*C$3</f>
-        <v>1.2217304763960306E-2</v>
-      </c>
-      <c r="I8" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="H9">
         <v>0.3</v>
       </c>
-      <c r="J8" s="4">
-        <v>1.2217304763960306E-2</v>
-      </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.4</v>
       </c>
-      <c r="E9" s="2" t="e">
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="2"/>
-        <v>1.0471975511965976E-2</v>
-      </c>
-      <c r="I9" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="H10">
         <v>0.4</v>
       </c>
-      <c r="J9" s="4">
-        <v>1.0471975511965976E-2</v>
-      </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H11">
         <v>0.5</v>
       </c>
-      <c r="G10" s="4">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.6</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="2"/>
-        <v>8.7266462599716477E-3</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="4">
-        <v>8.7266462599716477E-3</v>
+        <v>0.4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="H12">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E11" s="2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="F11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="G11" s="4">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="H13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.8</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="2"/>
-        <v>6.9813170079773184E-3</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="J11" s="4">
-        <v>6.9813170079773184E-3</v>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E12" s="2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="F12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G12" s="4">
+        <v>8.9999999999999983E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="2"/>
-        <v>5.235987755982989E-3</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J12" s="4">
-        <v>5.235987755982989E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>3.4906585039886583E-3</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J13" s="4">
-        <v>3.4906585039886583E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="2"/>
-        <v>1.7453292519943292E-3</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1.7453292519943292E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.7453292519943311E-3</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J16" s="4">
-        <v>-1.7453292519943311E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.19999999999999996</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="2"/>
-        <v>-3.4906585039886583E-3</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="J17" s="4">
-        <v>-3.4906585039886583E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>11.700000000000001</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="2"/>
-        <v>-5.235987755982989E-3</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="J18" s="4">
-        <v>-5.235987755982989E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.39999999999999991</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="2"/>
-        <v>-6.9813170079773166E-3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="J19" s="4">
-        <v>-6.9813170079773166E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="2"/>
-        <v>-8.7266462599716477E-3</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="J20" s="4">
-        <v>-8.7266462599716477E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.60000000000000009</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.0471975511965978E-2</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="J21" s="4">
-        <v>-1.0471975511965978E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>22.099999999999998</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.7</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.2217304763960306E-2</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="J22" s="4">
-        <v>-1.2217304763960306E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>18</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.8</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.3962634015954637E-2</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="J23" s="4">
-        <v>-1.3962634015954637E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>19</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>28.5</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.89999999999999991</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.5707963267948963E-2</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="J24" s="4">
-        <v>-1.5707963267948963E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.7453292519943295E-2</v>
-      </c>
-      <c r="I25" s="4">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4">
-        <v>-1.7453292519943295E-2</v>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>14*7</f>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/TELARANA.xlsx
+++ b/TELARANA.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Malthus" sheetId="2" r:id="rId1"/>
     <sheet name="SENO(Xn)" sheetId="3" r:id="rId2"/>
     <sheet name="a SENO(PI Xn)" sheetId="4" r:id="rId3"/>
-    <sheet name="Malthus" sheetId="2" r:id="rId4"/>
+    <sheet name="Mapeo" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>RADIANES (PI / 180)</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>a * SENO</t>
-  </si>
-  <si>
-    <t>SENO (PI * Xn)</t>
   </si>
   <si>
     <t>Xn</t>
@@ -65,9 +62,6 @@
     <t>(a*x) * ( 1 - x)</t>
   </si>
   <si>
-    <t>PI * Xn</t>
-  </si>
-  <si>
     <t>PI</t>
   </si>
   <si>
@@ -81,6 +75,9 @@
   </si>
   <si>
     <t>SENO (Xn*PI)</t>
+  </si>
+  <si>
+    <t>a*sin(PI * Xn)</t>
   </si>
 </sst>
 </file>
@@ -192,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,6 +216,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -306,10 +309,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$7:$D$27</c:f>
+              <c:f>Malthus!$D$6:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -342,108 +345,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$7:$G$27</c:f>
+              <c:f>Malthus!$G$6:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4830860816594855E-3</c:v>
+                  <c:v>0.13500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0966007317302568E-2</c:v>
+                  <c:v>0.24000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6448598865868847E-2</c:v>
+                  <c:v>0.31499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.193069589620979E-2</c:v>
+                  <c:v>0.36000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7412133592044294E-2</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2892747156913767E-2</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8372371819136691E-2</c:v>
+                  <c:v>0.315</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3850842836762376E-2</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9327995502523807E-2</c:v>
+                  <c:v>0.13499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4803665148789531E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0277687152514255E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.5749896940188152E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.122012999278475E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.6688221850706992E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.2154008118731692E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.761732447095201E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.3078006655717721E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.8535890500573486E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.10399081191719452</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.10944260690631982</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,9 +396,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Linea 45</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -470,10 +410,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$7:$D$27</c:f>
+              <c:f>Malthus!$D$6:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -506,43 +446,13 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$7:$H$17</c:f>
+              <c:f>Malthus!$H$6:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -593,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="377410488"/>
-        <c:axId val="377410880"/>
+        <c:axId val="322552856"/>
+        <c:axId val="322554424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="377410488"/>
+        <c:axId val="322552856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,7 +550,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377410880"/>
+        <c:crossAx val="322554424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -648,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377410880"/>
+        <c:axId val="322554424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -700,7 +610,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377410488"/>
+        <c:crossAx val="322552856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1169,11 +1079,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="377937488"/>
-        <c:axId val="377937880"/>
+        <c:axId val="322555208"/>
+        <c:axId val="322551288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="377937488"/>
+        <c:axId val="322555208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,7 +1126,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377937880"/>
+        <c:crossAx val="322551288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1224,7 +1134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377937880"/>
+        <c:axId val="322551288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1276,7 +1186,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377937488"/>
+        <c:crossAx val="322555208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1371,38 +1281,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1425,7 +1304,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'a SENO(PI Xn)'!$D$7:$D$17</c:f>
+              <c:f>'a SENO(PI Xn)'!$C$7:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1467,7 +1346,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'a SENO(PI Xn)'!$G$7:$G$17</c:f>
+              <c:f>'a SENO(PI Xn)'!$F$7:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1475,34 +1354,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24721359549995783</c:v>
+                  <c:v>6.1803398874989458E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47022820183397834</c:v>
+                  <c:v>0.11755705045849459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64721359549995805</c:v>
+                  <c:v>0.16180339887498951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76084521303612251</c:v>
+                  <c:v>0.19021130325903063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76084521303612285</c:v>
+                  <c:v>0.19021130325903071</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6472135954999586</c:v>
+                  <c:v>0.16180339887498965</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47022820183398056</c:v>
+                  <c:v>0.11755705045849514</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24721359549995769</c:v>
+                  <c:v>6.1803398874989424E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0855461215278983E-16</c:v>
+                  <c:v>2.0213865303819746E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,7 +1408,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'a SENO(PI Xn)'!$D$7:$D$17</c:f>
+              <c:f>'a SENO(PI Xn)'!$C$7:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1571,7 +1450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'a SENO(PI Xn)'!$H$7:$H$17</c:f>
+              <c:f>'a SENO(PI Xn)'!$G$7:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1622,11 +1501,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="377928864"/>
-        <c:axId val="377929256"/>
+        <c:axId val="322549720"/>
+        <c:axId val="322552464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="377928864"/>
+        <c:axId val="322549720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,7 +1548,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377929256"/>
+        <c:crossAx val="322552464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1677,7 +1556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377929256"/>
+        <c:axId val="322552464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1729,7 +1608,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377928864"/>
+        <c:crossAx val="322549720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1824,147 +1703,15 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Malthus!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Malthus!$G$6:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31499999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.36000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.315</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1977,86 +1724,146 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Malthus!$D$6:$D$16</c:f>
+              <c:f>Mapeo!$B$8:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Malthus!$H$6:$H$16</c:f>
+              <c:f>Mapeo!$G$8:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.99999990642675674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>5.4803660025773054E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>3.0049423898496235E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>1.6476440278718064E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>9.034219304828319E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>4.9535650339631319E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>2.7160959589047154E-8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>1.4892662572103887E-9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>8.1658160036430705E-11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>4.4774096426689755E-12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2.4550145508203142E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,19 +1871,20 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="92637920"/>
-        <c:axId val="92638312"/>
+        <c:axId val="379714960"/>
+        <c:axId val="379709080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92637920"/>
+        <c:axId val="379714960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +1927,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92638312"/>
+        <c:crossAx val="379709080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2127,10 +1935,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92638312"/>
+        <c:axId val="379709080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="2.0000000000000005E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2179,7 +1987,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92637920"/>
+        <c:crossAx val="379714960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4489,19 +4297,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4516,44 +4324,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666582</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28551</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4229100" y="466725"/>
-          <a:ext cx="1342857" cy="190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4636,13 +4406,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>180807</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123801</xdr:rowOff>
@@ -4674,13 +4444,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>204787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4709,22 +4479,60 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180807</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="142875"/>
+          <a:ext cx="1342857" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4735,7 +4543,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4989,1576 +4797,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K27"/>
-  <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1">
-        <f>PI()</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>PI()/180</f>
-        <v>1.7453292519943295E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <f>C$2*D7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <f>SIN(C$3*E7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <f>C7*F7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:E17" si="0">C$2*D8</f>
-        <v>0.31415926535897931</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:F17" si="1">SIN(C$3*E8)</f>
-        <v>5.4830860816594855E-3</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8:G27" si="2">C8*F8</f>
-        <v>5.4830860816594855E-3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.62831853071795862</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0966007317302568E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0966007317302568E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.94247779607693793</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6448598865868847E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6448598865868847E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2566370614359172</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>2.193069589620979E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>2.193069589620979E-2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7412133592044294E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>2.7412133592044294E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.8849555921538759</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>3.2892747156913767E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2892747156913767E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1991148575128552</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>3.8372371819136691E-2</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="2"/>
-        <v>3.8372371819136691E-2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5132741228718345</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>4.3850842836762376E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="2"/>
-        <v>4.3850842836762376E-2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8274333882308138</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>4.9327995502523807E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="2"/>
-        <v>4.9327995502523807E-2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>5.4803665148789531E-2</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="2"/>
-        <v>5.4803665148789531E-2</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" ref="E18:E27" si="3">C$2*D18</f>
-        <v>3.4557519189487729</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" ref="F18:F27" si="4">SIN(C$3*E18)</f>
-        <v>6.0277687152514255E-2</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="2"/>
-        <v>6.0277687152514255E-2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="3"/>
-        <v>3.7699111843077517</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="4"/>
-        <v>6.5749896940188152E-2</v>
-      </c>
-      <c r="G19" s="2">
-        <f>C19*F19</f>
-        <v>6.5749896940188152E-2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="3"/>
-        <v>4.0840704496667311</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="4"/>
-        <v>7.122012999278475E-2</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="2"/>
-        <v>7.122012999278475E-2</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="3"/>
-        <v>4.3982297150257104</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6688221850706992E-2</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="2"/>
-        <v>7.6688221850706992E-2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="3"/>
-        <v>4.7123889803846897</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="4"/>
-        <v>8.2154008118731692E-2</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="2"/>
-        <v>8.2154008118731692E-2</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="3"/>
-        <v>5.026548245743669</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="4"/>
-        <v>8.761732447095201E-2</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="2"/>
-        <v>8.761732447095201E-2</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="3"/>
-        <v>5.3407075111026483</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="4"/>
-        <v>9.3078006655717721E-2</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="2"/>
-        <v>9.3078006655717721E-2</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="3"/>
-        <v>5.6548667764616276</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="4"/>
-        <v>9.8535890500573486E-2</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="2"/>
-        <v>9.8535890500573486E-2</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="3"/>
-        <v>5.9690260418206069</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10399081191719452</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="2"/>
-        <v>0.10399081191719452</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="3"/>
-        <v>6.2831853071795862</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10944260690631982</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="2"/>
-        <v>0.10944260690631982</v>
-      </c>
-      <c r="H27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1">
-        <f>PI()</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>PI()/180</f>
-        <v>1.7453292519943295E-2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <f>SIN(C$3*D7)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <f>E7*C7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:E18" si="0">SIN(C$3*D8)</f>
-        <v>0.15643446504023087</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:F18" si="1">E8*C8</f>
-        <v>0.10950412552816161</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.3090169943749474</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.21631189606246318</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D10" s="2">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.45399049973954675</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.3177933498176827</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58778525229247314</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.4114496766047312</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.49497474683058318</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.80901699437494745</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.56631189606246313</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>63</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89100652418836779</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.62370456693185738</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.95105651629515353</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.66573956140660739</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D16" s="2">
-        <v>81</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.98768834059513777</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.69138183841659639</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D17" s="2">
-        <v>90</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D18" s="2">
-        <v>99</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.98768834059513777</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.69138183841659639</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>108</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" ref="E19:E26" si="2">SIN(C$3*D19)</f>
-        <v>0.95105651629515364</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" ref="F19:F26" si="3">E19*C19</f>
-        <v>0.66573956140660751</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>14</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D20" s="2">
-        <v>117</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.8910065241883679</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="3"/>
-        <v>0.6237045669318575</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D21" s="2">
-        <v>126</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.80901699437494745</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="3"/>
-        <v>0.56631189606246313</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D22" s="2">
-        <v>135</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49497474683058329</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>17</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D23" s="2">
-        <v>144</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.58778525229247325</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="3"/>
-        <v>0.41144967660473125</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>18</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D24" s="2">
-        <v>153</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.45399049973954686</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="3"/>
-        <v>0.31779334981768276</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>19</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D25" s="2">
-        <v>162</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="2"/>
-        <v>0.30901699437494751</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="3"/>
-        <v>0.21631189606246323</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>20</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D26" s="2">
-        <v>171</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15643446504023098</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="3"/>
-        <v>0.10950412552816167</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>21</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D27" s="2">
-        <v>180</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" ref="E27" si="4">SIN(C$3*D27)</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" ref="F27" si="5">E27*C27</f>
-        <v>8.5760391843603401E-17</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1">
-        <f>PI()</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="I2">
-        <f>180/C2</f>
-        <v>57.295779513082323</v>
-      </c>
-      <c r="J2">
-        <v>57.295779513082302</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>PI()/180</f>
-        <v>1.7453292519943295E-2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <f>D7*C$2</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <f>SIN(C$3*E7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <f>F7*C7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5.7295779513082303</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:E17" si="0">D8*C$2</f>
-        <v>17.999999999999993</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:F17" si="1">SIN(C$3*E8)</f>
-        <v>0.30901699437494728</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8:G17" si="2">F8*C8</f>
-        <v>0.24721359549995783</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>11.459155902616461</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>35.999999999999986</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.58778525229247292</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.47022820183397834</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>17.188733853924699</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>54.000000000000007</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.80901699437494745</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.64721359549995805</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D11" s="2">
-        <v>22.9183118052329</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>71.999999999999915</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.95105651629515309</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.76084521303612251</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D12" s="2">
-        <v>28.647889756541201</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>90.000000000000128</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D13" s="2">
-        <v>34.377467707849398</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>108.00000000000001</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.95105651629515353</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.76084521303612285</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D14" s="2">
-        <v>40.107045659157599</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" ref="E14:E15" si="3">D14*C$2</f>
-        <v>125.99999999999991</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.80901699437494823</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" ref="G14:G15" si="4">F14*C14</f>
-        <v>0.6472135954999586</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45.8366236104658</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="3"/>
-        <v>143.99999999999983</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" ref="F15" si="5">SIN(C$3*E15)</f>
-        <v>0.58778525229247569</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.47022820183398056</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D16" s="2">
-        <v>51.566201561774101</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>162.00000000000003</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.30901699437494712</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24721359549995769</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D17" s="2">
-        <v>57.295779513082302</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>179.99999999999994</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0106932651909872E-15</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="2"/>
-        <v>8.0855461215278983E-16</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6572,27 +4810,27 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H5" s="2">
         <v>45</v>
@@ -6888,6 +5126,1371 @@
       <c r="D26">
         <f>14*7</f>
         <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>PI()/180</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SIN(C$3*D7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f>E7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E18" si="0">SIN(C$3*D8)</f>
+        <v>0.15643446504023087</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F18" si="1">E8*C8</f>
+        <v>0.10950412552816161</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3090169943749474</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21631189606246318</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45399049973954675</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3177933498176827</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58778525229247314</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4114496766047312</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49497474683058318</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.56631189606246313</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89100652418836779</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62370456693185738</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66573956140660739</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98768834059513777</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.69138183841659639</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>90</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>99</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98768834059513777</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.69138183841659639</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>108</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" ref="E19:E26" si="2">SIN(C$3*D19)</f>
+        <v>0.95105651629515364</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:F26" si="3">E19*C19</f>
+        <v>0.66573956140660751</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>14</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>117</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8910065241883679</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6237045669318575</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>15</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>126</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.56631189606246313</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>135</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49497474683058329</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>17</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>144</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.58778525229247325</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41144967660473125</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>18</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>153</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45399049973954686</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31779334981768276</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>19</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D25" s="2">
+        <v>162</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30901699437494751</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21631189606246323</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D26" s="2">
+        <v>171</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15643446504023098</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10950412552816167</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>21</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>180</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ref="E27" si="4">SIN(C$3*D27)</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" ref="F27" si="5">E27*C27</f>
+        <v>8.5760391843603401E-17</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="H2">
+        <f>180/B2</f>
+        <v>57.295779513082323</v>
+      </c>
+      <c r="I2">
+        <v>57.295779513082302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>PI()/180</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7*B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SIN(B$3*D7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f>E7*B7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.7295779513082303</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D17" si="0">C8*B$2</f>
+        <v>17.999999999999993</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E17" si="1">SIN(B$3*D8)</f>
+        <v>0.30901699437494728</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F17" si="2">E8*B8</f>
+        <v>6.1803398874989458E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11.459155902616461</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>35.999999999999986</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58778525229247292</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11755705045849459</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>17.188733853924699</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>54.000000000000007</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16180339887498951</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>22.9183118052329</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>71.999999999999915</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95105651629515309</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19021130325903063</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>28.647889756541201</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>90.000000000000128</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>34.377467707849398</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>108.00000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19021130325903071</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40.107045659157599</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="3">C14*B$2</f>
+        <v>125.99999999999991</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494823</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:F15" si="4">E14*B14</f>
+        <v>0.16180339887498965</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45.8366236104658</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>143.99999999999983</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ref="E15" si="5">SIN(B$3*D15)</f>
+        <v>0.58778525229247569</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11755705045849514</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>51.566201561774101</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>162.00000000000003</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30901699437494712</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1803398874989424E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>57.295779513082302</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>179.99999999999994</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0106932651909872E-15</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0213865303819746E-16</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D20" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="I2">
+        <f>180/C2</f>
+        <v>57.295779513082323</v>
+      </c>
+      <c r="J2">
+        <v>57.295779513082302</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>PI()/180</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f>D7*C$2</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SIN(C$3*E7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f>F7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2">
+        <v>28.64</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E17" si="0">D8*C$2</f>
+        <v>89.975213598811678</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F17" si="1">SIN(C$3*E8)</f>
+        <v>0.99999990642675674</v>
+      </c>
+      <c r="G8" s="2">
+        <f>F8*C$1</f>
+        <v>0.99999990642675674</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="2">
+        <f>G8</f>
+        <v>0.99999990642675674</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1415923596207795</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4803660025773054E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ref="G9:G18" si="2">F9*C$1</f>
+        <v>5.4803660025773054E-2</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="2">
+        <f>G9</f>
+        <v>5.4803660025773054E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17217077572680123</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0049423898496235E-3</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>3.0049423898496235E-3</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:D18" si="3">G10</f>
+        <v>3.0049423898496235E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4403049364121337E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6476440278718064E-4</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6476440278718064E-4</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6476440278718064E-4</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1762263736931631E-4</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>9.034219304828319E-6</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>9.034219304828319E-6</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>9.034219304828319E-6</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8381836998967736E-5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9535650339631319E-7</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9535650339631319E-7</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2">
+        <f t="shared" si="3"/>
+        <v>4.9535650339631319E-7</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5562083519777849E-6</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7160959589047154E-8</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7160959589047154E-8</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7160959589047154E-8</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5328671109399778E-8</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4892662572103887E-9</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4892662572103887E-9</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4892662572103887E-9</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6786679328913242E-9</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1658160036430705E-11</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>8.1658160036430705E-11</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>8.1658160036430705E-11</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5653667567611034E-10</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4774096426689755E-12</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4774096426689755E-12</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4774096426689755E-12</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18" si="4">D18*C$2</f>
+        <v>1.4066197240520954E-11</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ref="F18" si="5">SIN(C$3*E18)</f>
+        <v>2.4550145508203142E-13</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4550145508203142E-13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="2">
+        <v>57.295779513082302</v>
+      </c>
+      <c r="E21" s="2">
+        <f>D21*2</f>
+        <v>114.5915590261646</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="2">
+        <f>D21/2</f>
+        <v>28.647889756541151</v>
+      </c>
+      <c r="E22" s="2">
+        <f>D22+D21</f>
+        <v>85.943669269623456</v>
+      </c>
+      <c r="F22" s="2">
+        <v>788976</v>
       </c>
     </row>
   </sheetData>

--- a/TELARANA.xlsx
+++ b/TELARANA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Malthus" sheetId="2" r:id="rId1"/>
@@ -256,7 +256,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -503,11 +502,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="322552856"/>
-        <c:axId val="322554424"/>
+        <c:axId val="370840720"/>
+        <c:axId val="370838760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322552856"/>
+        <c:axId val="370840720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,7 +549,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322554424"/>
+        <c:crossAx val="370838760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -558,7 +557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322554424"/>
+        <c:axId val="370838760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -610,7 +609,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322552856"/>
+        <c:crossAx val="370840720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -624,7 +623,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -706,7 +704,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1079,11 +1076,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="322555208"/>
-        <c:axId val="322551288"/>
+        <c:axId val="370835232"/>
+        <c:axId val="370835624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322555208"/>
+        <c:axId val="370835232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1123,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322551288"/>
+        <c:crossAx val="370835624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1134,7 +1131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322551288"/>
+        <c:axId val="370835624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1186,7 +1183,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322555208"/>
+        <c:crossAx val="370835232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,7 +1197,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1354,34 +1350,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1803398874989458E-2</c:v>
+                  <c:v>9.2705098312484177E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11755705045849459</c:v>
+                  <c:v>0.17633557568774186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16180339887498951</c:v>
+                  <c:v>0.24270509831248421</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19021130325903063</c:v>
+                  <c:v>0.28531695488854592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19021130325903071</c:v>
+                  <c:v>0.28531695488854603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16180339887498965</c:v>
+                  <c:v>0.24270509831248446</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11755705045849514</c:v>
+                  <c:v>0.17633557568774269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1803398874989424E-2</c:v>
+                  <c:v>9.2705098312484135E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0213865303819746E-16</c:v>
+                  <c:v>3.0320797955729616E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,11 +1497,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="322549720"/>
-        <c:axId val="322552464"/>
+        <c:axId val="370842680"/>
+        <c:axId val="370836016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322549720"/>
+        <c:axId val="370842680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1544,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322552464"/>
+        <c:crossAx val="370836016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1556,7 +1552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322552464"/>
+        <c:axId val="370836016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1608,7 +1604,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322549720"/>
+        <c:crossAx val="370842680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1880,11 +1876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="379714960"/>
-        <c:axId val="379709080"/>
+        <c:axId val="370836408"/>
+        <c:axId val="370837192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="379714960"/>
+        <c:axId val="370836408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +1923,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379709080"/>
+        <c:crossAx val="370837192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1935,7 +1931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379709080"/>
+        <c:axId val="370837192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000005E-3"/>
@@ -1987,7 +1983,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379714960"/>
+        <c:crossAx val="370836408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4445,15 +4441,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5700,8 +5696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5818,7 +5814,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="11">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C8" s="2">
         <v>5.7295779513082303</v>
@@ -5833,7 +5829,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" ref="F8:F17" si="2">E8*B8</f>
-        <v>6.1803398874989458E-2</v>
+        <v>9.2705098312484177E-2</v>
       </c>
       <c r="G8" s="2">
         <v>0.1</v>
@@ -5844,8 +5840,8 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.2</v>
+      <c r="B9" s="11">
+        <v>0.3</v>
       </c>
       <c r="C9" s="2">
         <v>11.459155902616461</v>
@@ -5860,7 +5856,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
-        <v>0.11755705045849459</v>
+        <v>0.17633557568774186</v>
       </c>
       <c r="G9" s="2">
         <v>0.2</v>
@@ -5871,8 +5867,8 @@
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.2</v>
+      <c r="B10" s="11">
+        <v>0.3</v>
       </c>
       <c r="C10" s="2">
         <v>17.188733853924699</v>
@@ -5887,7 +5883,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>0.16180339887498951</v>
+        <v>0.24270509831248421</v>
       </c>
       <c r="G10" s="2">
         <v>0.3</v>
@@ -5898,8 +5894,8 @@
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="7">
-        <v>0.2</v>
+      <c r="B11" s="11">
+        <v>0.3</v>
       </c>
       <c r="C11" s="2">
         <v>22.9183118052329</v>
@@ -5914,7 +5910,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
-        <v>0.19021130325903063</v>
+        <v>0.28531695488854592</v>
       </c>
       <c r="G11" s="2">
         <v>0.4</v>
@@ -5925,8 +5921,8 @@
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.2</v>
+      <c r="B12" s="11">
+        <v>0.3</v>
       </c>
       <c r="C12" s="2">
         <v>28.647889756541201</v>
@@ -5941,7 +5937,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G12" s="2">
         <v>0.5</v>
@@ -5952,8 +5948,8 @@
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="7">
-        <v>0.2</v>
+      <c r="B13" s="11">
+        <v>0.3</v>
       </c>
       <c r="C13" s="2">
         <v>34.377467707849398</v>
@@ -5968,7 +5964,7 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>0.19021130325903071</v>
+        <v>0.28531695488854603</v>
       </c>
       <c r="G13" s="2">
         <v>0.6</v>
@@ -5979,8 +5975,8 @@
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="7">
-        <v>0.2</v>
+      <c r="B14" s="11">
+        <v>0.3</v>
       </c>
       <c r="C14" s="2">
         <v>40.107045659157599</v>
@@ -5995,7 +5991,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" ref="F14:F15" si="4">E14*B14</f>
-        <v>0.16180339887498965</v>
+        <v>0.24270509831248446</v>
       </c>
       <c r="G14" s="2">
         <v>0.7</v>
@@ -6006,8 +6002,8 @@
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.2</v>
+      <c r="B15" s="11">
+        <v>0.3</v>
       </c>
       <c r="C15" s="2">
         <v>45.8366236104658</v>
@@ -6022,7 +6018,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="4"/>
-        <v>0.11755705045849514</v>
+        <v>0.17633557568774269</v>
       </c>
       <c r="G15" s="2">
         <v>0.8</v>
@@ -6033,8 +6029,8 @@
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="7">
-        <v>0.2</v>
+      <c r="B16" s="11">
+        <v>0.3</v>
       </c>
       <c r="C16" s="2">
         <v>51.566201561774101</v>
@@ -6049,7 +6045,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>6.1803398874989424E-2</v>
+        <v>9.2705098312484135E-2</v>
       </c>
       <c r="G16" s="2">
         <v>0.9</v>
@@ -6060,8 +6056,8 @@
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="7">
-        <v>0.2</v>
+      <c r="B17" s="11">
+        <v>0.3</v>
       </c>
       <c r="C17" s="2">
         <v>57.295779513082302</v>
@@ -6076,7 +6072,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>2.0213865303819746E-16</v>
+        <v>3.0320797955729616E-16</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -6101,7 +6097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/TELARANA.xlsx
+++ b/TELARANA.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Malthus" sheetId="2" r:id="rId1"/>
-    <sheet name="SENO(Xn)" sheetId="3" r:id="rId2"/>
-    <sheet name="a SENO(PI Xn)" sheetId="4" r:id="rId3"/>
-    <sheet name="Mapeo" sheetId="5" r:id="rId4"/>
+    <sheet name="MalthusMap" sheetId="7" r:id="rId2"/>
+    <sheet name="SENO(Xn)" sheetId="3" r:id="rId3"/>
+    <sheet name="a SENO(PI Xn)" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="8" r:id="rId5"/>
+    <sheet name="a SENO (PI 1)" sheetId="6" r:id="rId6"/>
+    <sheet name="SENOMap" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="24">
   <si>
     <t>RADIANES (PI / 180)</t>
   </si>
@@ -79,12 +82,33 @@
   <si>
     <t>a*sin(PI * Xn)</t>
   </si>
+  <si>
+    <t>1 - Xn</t>
+  </si>
+  <si>
+    <t>a*Xn</t>
+  </si>
+  <si>
+    <t>(a*Xn)*(1 - Xn)</t>
+  </si>
+  <si>
+    <t>periodico 45</t>
+  </si>
+  <si>
+    <t>caotico 50</t>
+  </si>
+  <si>
+    <t>fijo 40</t>
+  </si>
+  <si>
+    <t>observer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +120,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +256,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,6 +294,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -502,11 +541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="370840720"/>
-        <c:axId val="370838760"/>
+        <c:axId val="313214280"/>
+        <c:axId val="313209184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="370840720"/>
+        <c:axId val="313214280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +588,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370838760"/>
+        <c:crossAx val="313209184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -557,7 +596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370838760"/>
+        <c:axId val="313209184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -609,7 +648,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370840720"/>
+        <c:crossAx val="313214280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -623,6 +662,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -703,37 +743,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -742,9 +752,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>SENO</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -757,310 +764,104 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
             <c:numRef>
-              <c:f>'SENO(Xn)'!$D$7:$D$27</c:f>
+              <c:f>MalthusMap!$F$8:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.36000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0.92159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>0.28901376000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>0.8219392261226498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>0.58542053873419742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>0.97081332624943795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>0.11333924730376121</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>0.40197384929751229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72</c:v>
+                  <c:v>0.96156349511381278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81</c:v>
+                  <c:v>0.14783655991328529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SENO(Xn)'!$F$7:$F$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10950412552816161</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21631189606246318</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3177933498176827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4114496766047312</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.49497474683058318</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.56631189606246313</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.62370456693185738</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.66573956140660739</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.69138183841659639</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.69138183841659639</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.66573956140660751</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6237045669318575</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.56631189606246313</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.49497474683058329</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.41144967660473125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.31779334981768276</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.21631189606246323</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.10950412552816167</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.5760391843603401E-17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Linea 45</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'SENO(Xn)'!$D$7:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SENO(Xn)'!$G$7:$G$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>0.50392364586516358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,19 +869,20 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="370835232"/>
-        <c:axId val="370835624"/>
+        <c:axId val="382533432"/>
+        <c:axId val="382537352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="370835232"/>
+        <c:axId val="382533432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +925,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370835624"/>
+        <c:crossAx val="382537352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1131,10 +933,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370835624"/>
+        <c:axId val="382537352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1183,7 +986,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370835232"/>
+        <c:crossAx val="382533432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1197,6 +1000,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1277,7 +1081,38 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1286,6 +1121,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>SENO</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1300,84 +1138,144 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'a SENO(PI Xn)'!$C$7:$C$17</c:f>
+              <c:f>'SENO(Xn)'!$D$7:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7295779513082303</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.459155902616461</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.188733853924699</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.9183118052329</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.647889756541201</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.377467707849398</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.107045659157599</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.8366236104658</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.566201561774101</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.295779513082302</c:v>
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'a SENO(PI Xn)'!$F$7:$F$17</c:f>
+              <c:f>'SENO(Xn)'!$F$7:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2705098312484177E-2</c:v>
+                  <c:v>0.10950412552816161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17633557568774186</c:v>
+                  <c:v>0.21631189606246318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24270509831248421</c:v>
+                  <c:v>0.3177933498176827</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28531695488854592</c:v>
+                  <c:v>0.4114496766047312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.49497474683058318</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28531695488854603</c:v>
+                  <c:v>0.56631189606246313</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24270509831248446</c:v>
+                  <c:v>0.62370456693185738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17633557568774269</c:v>
+                  <c:v>0.66573956140660739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2705098312484135E-2</c:v>
+                  <c:v>0.69138183841659639</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0320797955729616E-16</c:v>
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69138183841659639</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66573956140660751</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6237045669318575</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56631189606246313</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49497474683058329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41144967660473125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31779334981768276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.21631189606246323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10950412552816167</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5760391843603401E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,52 +1302,82 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'a SENO(PI Xn)'!$C$7:$C$17</c:f>
+              <c:f>'SENO(Xn)'!$D$7:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7295779513082303</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.459155902616461</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.188733853924699</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.9183118052329</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.647889756541201</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.377467707849398</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.107045659157599</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.8366236104658</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.566201561774101</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.295779513082302</c:v>
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'a SENO(PI Xn)'!$G$7:$G$17</c:f>
+              <c:f>'SENO(Xn)'!$G$7:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1482,6 +1410,36 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,11 +1455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="370842680"/>
-        <c:axId val="370836016"/>
+        <c:axId val="313213496"/>
+        <c:axId val="313215848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="370842680"/>
+        <c:axId val="313213496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1502,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370836016"/>
+        <c:crossAx val="313215848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1552,7 +1510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370836016"/>
+        <c:axId val="313215848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1604,7 +1562,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370842680"/>
+        <c:crossAx val="313213496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1720,146 +1678,190 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Mapeo!$B$8:$B$18</c:f>
+              <c:f>'a SENO(PI Xn)'!$C$7:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5.7295779513082303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>11.4591559026165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>17.188733853924699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>22.9183118052329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>28.647889756541201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>34.377467707849398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>40.107045659157599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>45.8366236104658</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>51.566201561774101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>57.295779513082302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Mapeo!$G$8:$G$18</c:f>
+              <c:f>'a SENO(PI Xn)'!$F$7:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.99999990642675674</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4803660025773054E-2</c:v>
+                  <c:v>0.30901699437494728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0049423898496235E-3</c:v>
+                  <c:v>0.58778525229247469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6476440278718064E-4</c:v>
+                  <c:v>0.80901699437494745</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.034219304828319E-6</c:v>
+                  <c:v>0.95105651629515309</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9535650339631319E-7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7160959589047154E-8</c:v>
+                  <c:v>0.95105651629515353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4892662572103887E-9</c:v>
+                  <c:v>0.80901699437494823</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1658160036430705E-11</c:v>
+                  <c:v>0.58778525229247569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4774096426689755E-12</c:v>
+                  <c:v>0.30901699437494712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4550145508203142E-13</c:v>
+                  <c:v>1.0106932651909872E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Linea 45</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'a SENO(PI Xn)'!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7295779513082303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.4591559026165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.188733853924699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.9183118052329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.647889756541201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.377467707849398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.107045659157599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.8366236104658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.566201561774101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.295779513082302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'a SENO(PI Xn)'!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,20 +1869,19 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="370836408"/>
-        <c:axId val="370837192"/>
+        <c:axId val="313210752"/>
+        <c:axId val="313211536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="370836408"/>
+        <c:axId val="313210752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1924,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370837192"/>
+        <c:crossAx val="313211536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1931,10 +1932,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370837192"/>
+        <c:axId val="313211536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.0000000000000005E-3"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1983,7 +1984,1275 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370836408"/>
+        <c:crossAx val="313210752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'a SENO (PI 1)'!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'a SENO (PI 1)'!$F$7:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4830860816594855E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0966007317302568E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6448598865868847E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.193069589620979E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7412133592044294E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2892747156913767E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8372371819136691E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3850842836762376E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9327995502523807E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4803665148789531E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Linea 45</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'a SENO (PI 1)'!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'a SENO(PI Xn)'!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="382534608"/>
+        <c:axId val="382539704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="382534608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382539704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="382539704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382534608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SENOMap!$B$8:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SENOMap!$F$8:$F$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>34.272943084227592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.258566508013814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.12357798955658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.483843834601252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.33991116707865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.180999653477812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.189241705145371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.34815950513682</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.64270069723004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.359177704407557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.807433661762104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.258342417756474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.842384876668522</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.46969369464891</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.569326937116109</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.191841423275818</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.989844054114705</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.547730490442056</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.400608453029019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.139850018916384</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.104898368817032</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.606505209711351</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.273216016111387</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47.097920125701286</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.197538500930296</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.652481891588664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.173372662776263</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47.063451342644719</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.273594292063194</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46.689328149590253</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.093236917024043</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47.034765774228937</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.336820534092251</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46.719340921072423</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.027884379234511</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47.010699756016123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.38981641848142</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46.744064908638649</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.973995163278904</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46.990400983365056</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.434482067614343</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46.764596116359776</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.929208385597342</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46.973218700269996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.472265537113291</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.781744843632922</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.891774962766529</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46.958640173922639</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.504305673546661</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46.796129530874119</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.860357420897209</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46.94625184864374</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.531519461336938</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46.80823395700034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.833907723664435</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46.935714390743108</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.554658124674322</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46.818443829203368</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.81158901769977</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>46.926745907579146</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.574344836989155</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>46.827071202395693</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.792723336989482</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>46.91911016862759</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.591101169277071</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46.834371401012483</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.77675531186944</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.912608002514574</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25.605366383792475</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>46.840555144220197</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25.763226124667305</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46.907070786145717</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25.617512012504331</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46.845797494409204</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.751754257213165</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46.902355364607971</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25.627853210467741</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>46.850244632794286</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25.742020888582953</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>46.898339987271264</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25.636657819605038</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>46.854019103251552</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25.733758574820172</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>46.894920992662314</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25.644153747244342</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>46.857223945771537</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>25.726742311025088</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>46.892010064097512</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25.650535062191526</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>46.859946004248442</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>25.720782367646102</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46.889531933432721</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>25.655967086014957</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46.862258606225538</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25.715718478544957</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>46.887422445302384</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>25.660590677917277</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>46.864223755363518</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>25.711415079638261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="313213888"/>
+        <c:axId val="313216240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="313213888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313216240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="313216240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313213888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2224,6 +3493,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3773,6 +5122,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4326,6 +6707,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4398,7 +6816,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4473,7 +6891,82 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180807</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="142875"/>
+          <a:ext cx="1342857" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4796,7 +7289,7 @@
   <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5131,6 +7624,378 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>1-C7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <f>C$1*C7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f>D7*E7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D18" si="0">1-C8</f>
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E18" si="1">C$1*C8</f>
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F18" si="2">D8*E8</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <f>F8</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4400000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:C18" si="3">F9</f>
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8400000000000025E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6863999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.28901376000000006</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.28901376000000006</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71098623999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1560550400000003</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8219392261226498</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8219392261226498</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1780607738773502</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2877569044905992</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.58542053873419742</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.58542053873419742</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41457946126580258</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3416821549367897</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97081332624943795</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.97081332624943795</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9186673750562053E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8832533049977518</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11333924730376121</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11333924730376121</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88666075269623879</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45335698921504486</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40197384929751229</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40197384929751229</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59802615070248777</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6078953971900491</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96156349511381278</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.96156349511381278</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8436504886187217E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8462539804552511</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14783655991328529</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14783655991328529</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.85216344008671474</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59134623965314115</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.50392364586516358</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D21" s="2">
+        <v>57.295779513082302</v>
+      </c>
+      <c r="F21" s="2">
+        <f>D21*2</f>
+        <v>114.5915590261646</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D22" s="2">
+        <f>D21/2</f>
+        <v>28.647889756541151</v>
+      </c>
+      <c r="F22" s="2">
+        <f>D22+D21</f>
+        <v>85.943669269623456</v>
+      </c>
+      <c r="G22" s="2">
+        <v>788976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J28"/>
   <sheetViews>
@@ -5692,12 +8557,843 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B17"/>
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="H2">
+        <f>180/B2</f>
+        <v>57.295779513082323</v>
+      </c>
+      <c r="I2">
+        <v>57.295779513082302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>PI()/180</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7*B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SIN(B$3*D7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f>E7*B$1</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.7295779513082303</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D17" si="0">C8*B$2</f>
+        <v>17.999999999999993</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E17" si="1">SIN(B$3*D8)</f>
+        <v>0.30901699437494728</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F17" si="2">E8*B$1</f>
+        <v>0.30901699437494728</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11.4591559026165</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>36.000000000000114</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58778525229247469</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.58778525229247469</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>17.188733853924699</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>54.000000000000007</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>22.9183118052329</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>71.999999999999915</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95105651629515309</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95105651629515309</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>28.647889756541201</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>90.000000000000128</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>34.377467707849398</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>108.00000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40.107045659157599</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="3">C14*B$2</f>
+        <v>125.99999999999991</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494823</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.80901699437494823</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45.8366236104658</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>143.99999999999983</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ref="E15" si="4">SIN(B$3*D15)</f>
+        <v>0.58778525229247569</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.58778525229247569</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>51.566201561774101</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>162.00000000000003</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30901699437494712</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30901699437494712</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>57.295779513082302</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>179.99999999999994</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0106932651909872E-15</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0106932651909872E-15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D20" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1.09662249143582E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2.1932436640939999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>3.28986219919846E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>4.3864767779763399E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>5.4830860816594803E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>6.5796887914861104E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>7.6762835887023697E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>8.7728691545639094E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>9.8694441703374904E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>1.09660073173025E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>1.2062557276752799E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>1.31590927299979E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1.42556123583648E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1.53521148431995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>1.6448598865868799E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>1.7545063107761501E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>1.8641506250290301E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>1.97379269748931E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>2.0834323963035101E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>2.19306958962097E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>2.30270414559407E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2.4123359323783299E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2.5219648181326298E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2.63159067101933E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>2.74121335920442E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>2.8508327508577298E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>2.96044871415303E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>3.07006111726821E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>3.1796698283854501E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>3.2892747156913697E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>3.3988756473772003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>3.5084724916388997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3.6180651166773603E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>3.7276533906985501E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>3.8372371819136698E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>3.9468163585392999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>4.0563907887975703E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>4.1659603409163401E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>4.2755248831293197E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>4.3850842836762403E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>4.4946384108030098E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>4.6041871327619097E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>4.7137303178116798E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>4.82326783421776E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>4.93279955025238E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>5.0423253341947402E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>5.1518450543312097E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>5.2613585789554003E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>5.3708657763684199E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5814,22 +9510,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>5.7295779513082303</v>
+        <v>0.1</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ref="D8:D17" si="0">C8*B$2</f>
-        <v>17.999999999999993</v>
+        <v>0.31415926535897931</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E17" si="1">SIN(B$3*D8)</f>
-        <v>0.30901699437494728</v>
+        <v>5.4830860816594855E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ref="F8:F17" si="2">E8*B8</f>
-        <v>9.2705098312484177E-2</v>
+        <v>5.4830860816594855E-3</v>
       </c>
       <c r="G8" s="2">
         <v>0.1</v>
@@ -5841,22 +9537,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>11.459155902616461</v>
+        <v>0.2</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>35.999999999999986</v>
+        <v>0.62831853071795862</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0.58778525229247292</v>
+        <v>1.0966007317302568E-2</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
-        <v>0.17633557568774186</v>
+        <v>1.0966007317302568E-2</v>
       </c>
       <c r="G9" s="2">
         <v>0.2</v>
@@ -5868,22 +9564,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>17.188733853924699</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>54.000000000000007</v>
+        <v>0.94247779607693793</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>0.80901699437494745</v>
+        <v>1.6448598865868847E-2</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>0.24270509831248421</v>
+        <v>1.6448598865868847E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0.3</v>
@@ -5895,22 +9591,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>22.9183118052329</v>
+        <v>0.4</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>71.999999999999915</v>
+        <v>1.2566370614359172</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>0.95105651629515309</v>
+        <v>2.193069589620979E-2</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
-        <v>0.28531695488854592</v>
+        <v>2.193069589620979E-2</v>
       </c>
       <c r="G11" s="2">
         <v>0.4</v>
@@ -5922,22 +9618,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>28.647889756541201</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>90.000000000000128</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.7412133592044294E-2</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2.7412133592044294E-2</v>
       </c>
       <c r="G12" s="2">
         <v>0.5</v>
@@ -5949,22 +9645,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>34.377467707849398</v>
+        <v>0.6</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>108.00000000000001</v>
+        <v>1.8849555921538759</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>0.95105651629515353</v>
+        <v>3.2892747156913767E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>0.28531695488854603</v>
+        <v>3.2892747156913767E-2</v>
       </c>
       <c r="G13" s="2">
         <v>0.6</v>
@@ -5976,22 +9672,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>40.107045659157599</v>
+        <v>0.7</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="3">C14*B$2</f>
-        <v>125.99999999999991</v>
+        <f t="shared" si="0"/>
+        <v>2.1991148575128552</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>0.80901699437494823</v>
+        <v>3.8372371819136691E-2</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ref="F14:F15" si="4">E14*B14</f>
-        <v>0.24270509831248446</v>
+        <f t="shared" si="2"/>
+        <v>3.8372371819136691E-2</v>
       </c>
       <c r="G14" s="2">
         <v>0.7</v>
@@ -6003,22 +9699,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>45.8366236104658</v>
+        <v>0.8</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
-        <v>143.99999999999983</v>
+        <f t="shared" si="0"/>
+        <v>2.5132741228718345</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15" si="5">SIN(B$3*D15)</f>
-        <v>0.58778525229247569</v>
+        <f t="shared" si="1"/>
+        <v>4.3850842836762376E-2</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.17633557568774269</v>
+        <f t="shared" si="2"/>
+        <v>4.3850842836762376E-2</v>
       </c>
       <c r="G15" s="2">
         <v>0.8</v>
@@ -6030,22 +9726,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>51.566201561774101</v>
+        <v>0.9</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>162.00000000000003</v>
+        <v>2.8274333882308138</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>0.30901699437494712</v>
+        <v>4.9327995502523807E-2</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>9.2705098312484135E-2</v>
+        <v>4.9327995502523807E-2</v>
       </c>
       <c r="G16" s="2">
         <v>0.9</v>
@@ -6057,22 +9753,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>57.295779513082302</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>179.99999999999994</v>
+        <v>3.1415926535897931</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>1.0106932651909872E-15</v>
+        <v>5.4803665148789531E-2</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>3.0320797955729616E-16</v>
+        <v>5.4803665148789531E-2</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -6088,17 +9784,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:K106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6115,8 +9810,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
+      <c r="C1">
+        <v>47.5</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -6147,18 +9842,15 @@
         <f>PI()/180</f>
         <v>1.7453292519943295E-2</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6166,17 +9858,16 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="2"/>
@@ -6187,20 +9878,19 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
       <c r="D7" s="2">
+        <f>C7*C$2</f>
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <f>D7*C$2</f>
+        <f>SIN(C$3*D7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <f>SIN(C$3*E7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <f>F7*C7</f>
+        <f>E7*C1</f>
         <v>0</v>
       </c>
       <c r="H7" s="2"/>
@@ -6210,21 +9900,20 @@
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="12">
+        <v>14.7</v>
+      </c>
       <c r="D8" s="2">
-        <v>28.64</v>
+        <f>C8*C$2</f>
+        <v>46.181412007769957</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:E17" si="0">D8*C$2</f>
-        <v>89.975213598811678</v>
+        <f>SIN(C$3*D8)</f>
+        <v>0.72153564387847557</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:F17" si="1">SIN(C$3*E8)</f>
-        <v>0.99999990642675674</v>
-      </c>
-      <c r="G8" s="2">
-        <f>F8*C$1</f>
-        <v>0.99999990642675674</v>
+        <f>E8*C$1</f>
+        <v>34.272943084227592</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="2"/>
@@ -6233,22 +9922,21 @@
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="2">
+        <f>F8</f>
+        <v>34.272943084227592</v>
+      </c>
       <c r="D9" s="2">
-        <f>G8</f>
-        <v>0.99999990642675674</v>
+        <f>C9*C$2</f>
+        <v>107.67162621031051</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1415923596207795</v>
+        <f>SIN(C$3*D9)</f>
+        <v>0.95281192648450141</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>5.4803660025773054E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" ref="G9:G18" si="2">F9*C$1</f>
-        <v>5.4803660025773054E-2</v>
+        <f>E9*C$1</f>
+        <v>45.258566508013814</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="2"/>
@@ -6257,22 +9945,21 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="2">
+        <f>F9</f>
+        <v>45.258566508013814</v>
+      </c>
       <c r="D10" s="2">
-        <f>G9</f>
-        <v>5.4803660025773054E-2</v>
+        <f>C10*C$2</f>
+        <v>142.18398005358125</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17217077572680123</v>
+        <f>SIN(C$3*D10)</f>
+        <v>0.61312795767487538</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>3.0049423898496235E-3</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>3.0049423898496235E-3</v>
+        <f>E10*C$1</f>
+        <v>29.12357798955658</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="2"/>
@@ -6281,22 +9968,21 @@
       <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:C18" si="0">F10</f>
+        <v>29.12357798955658</v>
+      </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D18" si="3">G10</f>
-        <v>3.0049423898496235E-3</v>
+        <f>C11*C$2</f>
+        <v>91.494418658240349</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>9.4403049364121337E-3</v>
+        <f>SIN(C$3*D11)</f>
+        <v>0.99965987020213165</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6476440278718064E-4</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6476440278718064E-4</v>
+        <f>E11*C$1</f>
+        <v>47.483843834601252</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="2"/>
@@ -6305,22 +9991,21 @@
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>47.483843834601252</v>
+      </c>
       <c r="D12" s="2">
-        <f t="shared" si="3"/>
-        <v>1.6476440278718064E-4</v>
+        <f>C12*C$2</f>
+        <v>149.17489495498828</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1762263736931631E-4</v>
+        <f>SIN(C$3*D12)</f>
+        <v>0.51241918246481366</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>9.034219304828319E-6</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>9.034219304828319E-6</v>
+        <f>E12*C$1</f>
+        <v>24.33991116707865</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="2"/>
@@ -6329,22 +10014,21 @@
       <c r="B13" s="2">
         <v>7</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>24.33991116707865</v>
+      </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
-        <v>9.034219304828319E-6</v>
+        <f>C13*C$2</f>
+        <v>76.466086111522458</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8381836998967736E-5</v>
+        <f>SIN(C$3*D13)</f>
+        <v>0.97223157165216445</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>4.9535650339631319E-7</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="2"/>
-        <v>4.9535650339631319E-7</v>
+        <f>E13*C$1</f>
+        <v>46.180999653477812</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="2"/>
@@ -6353,22 +10037,21 @@
       <c r="B14" s="2">
         <v>8</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>46.180999653477812</v>
+      </c>
       <c r="D14" s="2">
-        <f t="shared" si="3"/>
-        <v>4.9535650339631319E-7</v>
+        <f>C14*C$2</f>
+        <v>145.08188924679868</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5562083519777849E-6</v>
+        <f>SIN(C$3*D14)</f>
+        <v>0.57240508852937622</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7160959589047154E-8</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="2"/>
-        <v>2.7160959589047154E-8</v>
+        <f>E14*C$1</f>
+        <v>27.189241705145371</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="2"/>
@@ -6377,22 +10060,21 @@
       <c r="B15" s="2">
         <v>9</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>27.189241705145371</v>
+      </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
-        <v>2.7160959589047154E-8</v>
+        <f>C15*C$2</f>
+        <v>85.41752199756192</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>8.5328671109399778E-8</v>
+        <f>SIN(C$3*D15)</f>
+        <v>0.99680335800288045</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4892662572103887E-9</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4892662572103887E-9</v>
+        <f>E15*C$1</f>
+        <v>47.34815950513682</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="2"/>
@@ -6401,22 +10083,21 @@
       <c r="B16" s="2">
         <v>10</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>47.34815950513682</v>
+      </c>
       <c r="D16" s="2">
-        <f t="shared" si="3"/>
-        <v>1.4892662572103887E-9</v>
+        <f>C16*C$2</f>
+        <v>148.74863006233556</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6786679328913242E-9</v>
+        <f>SIN(C$3*D16)</f>
+        <v>0.51879369888905347</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>8.1658160036430705E-11</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="2"/>
-        <v>8.1658160036430705E-11</v>
+        <f>E16*C$1</f>
+        <v>24.64270069723004</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="2"/>
@@ -6425,22 +10106,21 @@
       <c r="B17" s="2">
         <v>11</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>24.64270069723004</v>
+      </c>
       <c r="D17" s="2">
-        <f t="shared" si="3"/>
-        <v>8.1658160036430705E-11</v>
+        <f>C17*C$2</f>
+        <v>77.417327475029964</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5653667567611034E-10</v>
+        <f>SIN(C$3*D17)</f>
+        <v>0.97598268851384329</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>4.4774096426689755E-12</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="2"/>
-        <v>4.4774096426689755E-12</v>
+        <f>E17*C$1</f>
+        <v>46.359177704407557</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="2"/>
@@ -6449,44 +10129,1878 @@
       <c r="B18" s="2">
         <v>12</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>46.359177704407557</v>
+      </c>
       <c r="D18" s="2">
+        <f>C18*C$2</f>
+        <v>145.6416521026305</v>
+      </c>
+      <c r="E18" s="2">
+        <f>SIN(C$3*D18)</f>
+        <v>0.56436702445814957</v>
+      </c>
+      <c r="F18" s="2">
+        <f>E18*C$1</f>
+        <v>26.807433661762104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <f>F18</f>
+        <v>26.807433661762104</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C19*C$2</f>
+        <v>84.218036653387557</v>
+      </c>
+      <c r="E19" s="2">
+        <f>SIN(C$3*D19)</f>
+        <v>0.99491247195276789</v>
+      </c>
+      <c r="F19" s="2">
+        <f>E19*C1</f>
+        <v>47.258342417756474</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <f>F19</f>
+        <v>47.258342417756474</v>
+      </c>
+      <c r="D20" s="2">
+        <f>C20*C$2</f>
+        <v>148.46646136045464</v>
+      </c>
+      <c r="E20" s="2">
+        <f>SIN(C$3*D20)</f>
+        <v>0.52299757635091626</v>
+      </c>
+      <c r="F20" s="2">
+        <f>E20*C$1</f>
+        <v>24.842384876668522</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <f>F20</f>
+        <v>24.842384876668522</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21*C$2</f>
+        <v>78.044653826192004</v>
+      </c>
+      <c r="E21" s="2">
+        <f>SIN(C$3*D21)</f>
+        <v>0.97830934093997712</v>
+      </c>
+      <c r="F21" s="2">
+        <f>E21*C$1</f>
+        <v>46.46969369464891</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <f>F21</f>
+        <v>46.46969369464891</v>
+      </c>
+      <c r="D22" s="2">
+        <f>C22*C$2</f>
+        <v>145.98884832567694</v>
+      </c>
+      <c r="E22" s="2">
+        <f>SIN(C$3*D22)</f>
+        <v>0.55935425130770755</v>
+      </c>
+      <c r="F22" s="2">
+        <f>E22*C$1</f>
+        <v>26.569326937116109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:C26" si="1">F22</f>
+        <v>26.569326937116109</v>
+      </c>
+      <c r="D23" s="2">
+        <f>C23*C$2</f>
+        <v>83.470002316469362</v>
+      </c>
+      <c r="E23" s="2">
+        <f>SIN(C$3*D23)</f>
+        <v>0.99351245101633301</v>
+      </c>
+      <c r="F23" s="2">
+        <f>E23*C$1</f>
+        <v>47.191841423275818</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>47.191841423275818</v>
+      </c>
+      <c r="D24" s="2">
+        <f>C24*C$2</f>
+        <v>148.25754232473778</v>
+      </c>
+      <c r="E24" s="2">
+        <f>SIN(C$3*D24)</f>
+        <v>0.52610198008662534</v>
+      </c>
+      <c r="F24" s="2">
+        <f>E24*C$1</f>
+        <v>24.989844054114705</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>24.989844054114705</v>
+      </c>
+      <c r="D25" s="2">
+        <f>C25*C$2</f>
+        <v>78.507910494761333</v>
+      </c>
+      <c r="E25" s="2">
+        <f>SIN(C$3*D25)</f>
+        <v>0.97995222085141176</v>
+      </c>
+      <c r="F25" s="2">
+        <f>E25*C$1</f>
+        <v>46.547730490442056</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>46.547730490442056</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26*C$2</f>
+        <v>146.23400815005039</v>
+      </c>
+      <c r="E26" s="2">
+        <f>SIN(C$3*D26)</f>
+        <v>0.55580228322166358</v>
+      </c>
+      <c r="F26" s="2">
+        <f>E26*C$1</f>
+        <v>26.400608453029019</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" ref="C27:C66" si="2">F26</f>
+        <v>26.400608453029019</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:D90" si="3">C27*C$2</f>
+        <v>82.93995756633656</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ref="E27:E66" si="4">SIN(C$3*D27)</f>
+        <v>0.99241789513508183</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" ref="F27:F66" si="5">E27*C$1</f>
+        <v>47.139850018916384</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>47.139850018916384</v>
+      </c>
+      <c r="D28" s="2">
         <f t="shared" si="3"/>
-        <v>4.4774096426689755E-12</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" ref="E18" si="4">D18*C$2</f>
-        <v>1.4066197240520954E-11</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" ref="F18" si="5">SIN(C$3*E18)</f>
-        <v>2.4550145508203142E-13</v>
-      </c>
-      <c r="G18" s="2">
+        <v>148.09420651075237</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="4"/>
+        <v>0.52852417618562175</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="5"/>
+        <v>25.104898368817032</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2">
         <f t="shared" si="2"/>
-        <v>2.4550145508203142E-13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D21" s="2">
-        <v>57.295779513082302</v>
-      </c>
-      <c r="E21" s="2">
-        <f>D21*2</f>
-        <v>114.5915590261646</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D22" s="2">
-        <f>D21/2</f>
-        <v>28.647889756541151</v>
-      </c>
-      <c r="E22" s="2">
-        <f>D22+D21</f>
-        <v>85.943669269623456</v>
-      </c>
-      <c r="F22" s="2">
-        <v>788976</v>
+        <v>25.104898368817032</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="3"/>
+        <v>78.869364284593971</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98118958336234419</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="5"/>
+        <v>46.606505209711351</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>46.606505209711351</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="3"/>
+        <v>146.41865437632359</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="4"/>
+        <v>0.55312033718129239</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="5"/>
+        <v>26.273216016111387</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>26.273216016111387</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="3"/>
+        <v>82.539742422393232</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.99153516054107971</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="5"/>
+        <v>47.097920125701286</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="2"/>
+        <v>47.097920125701286</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="3"/>
+        <v>147.96247986626202</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="4"/>
+        <v>0.53047449475642727</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="5"/>
+        <v>25.197538500930296</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>25.197538500930296</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="3"/>
+        <v>79.160401843068584</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98215751350712976</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="5"/>
+        <v>46.652481891588664</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="2"/>
+        <v>46.652481891588664</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="3"/>
+        <v>146.56309438234581</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="4"/>
+        <v>0.55101837184792135</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="5"/>
+        <v>26.173372662776263</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>26.173372662776263</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="3"/>
+        <v>82.226075277045823</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="4"/>
+        <v>0.99080950195041517</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="5"/>
+        <v>47.063451342644719</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>47.063451342644719</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="3"/>
+        <v>147.85419299063332</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="4"/>
+        <v>0.53207566930659356</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="5"/>
+        <v>25.273594292063194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>25.273594292063194</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="3"/>
+        <v>79.399338157754656</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="4"/>
+        <v>0.9829332242019001</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="5"/>
+        <v>46.689328149590253</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>46.689328149590253</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="3"/>
+        <v>146.67885031579587</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54933130351629567</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="5"/>
+        <v>26.093236917024043</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>33</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>26.093236917024043</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="3"/>
+        <v>81.974321406900714</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="4"/>
+        <v>0.99020559524692497</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="5"/>
+        <v>47.034765774228937</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>34</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>47.034765774228937</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="3"/>
+        <v>147.76407461963427</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="4"/>
+        <v>0.53340674808615263</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="5"/>
+        <v>25.336820534092251</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>35</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="2"/>
+        <v>25.336820534092251</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="3"/>
+        <v>79.597969255227227</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98356507202257726</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="5"/>
+        <v>46.719340921072423</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>36</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="2"/>
+        <v>46.719340921072423</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="3"/>
+        <v>146.77313821819811</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54795546061546341</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="5"/>
+        <v>26.027884379234511</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>37</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="2"/>
+        <v>26.027884379234511</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="3"/>
+        <v>81.769010354287673</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98969894223191845</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="5"/>
+        <v>47.010699756016123</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>38</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="2"/>
+        <v>47.010699756016123</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="3"/>
+        <v>147.68846899361574</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5345224509153983</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="5"/>
+        <v>25.38981641848142</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>39</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="2"/>
+        <v>25.38981641848142</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="3"/>
+        <v>79.764460736294737</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98408557702397159</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="5"/>
+        <v>46.744064908638649</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>40</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="2"/>
+        <v>46.744064908638649</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="3"/>
+        <v>146.85081091590362</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54682095080587168</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="5"/>
+        <v>25.973995163278904</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="2"/>
+        <v>25.973995163278904</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="3"/>
+        <v>81.599712389333817</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98927159964979072</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="5"/>
+        <v>46.990400983365056</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>42</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="2"/>
+        <v>46.990400983365056</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="3"/>
+        <v>147.62469851857824</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="4"/>
+        <v>0.53546278037082828</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="5"/>
+        <v>25.434482067614343</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <v>43</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="2"/>
+        <v>25.434482067614343</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="3"/>
+        <v>79.904782011478559</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98451781297599528</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="5"/>
+        <v>46.764596116359776</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>44</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="2"/>
+        <v>46.764596116359776</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="3"/>
+        <v>146.91531160724963</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54587807127573351</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="5"/>
+        <v>25.929208385597342</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <v>45</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="2"/>
+        <v>25.929208385597342</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="3"/>
+        <v>81.459010577591471</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98890986737410513</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="5"/>
+        <v>46.973218700269996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <v>46</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="2"/>
+        <v>46.973218700269996</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="3"/>
+        <v>147.57071878423491</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="4"/>
+        <v>0.53625822183396399</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="5"/>
+        <v>25.472265537113291</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <v>47</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="2"/>
+        <v>25.472265537113291</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="3"/>
+        <v>80.023482281683584</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98487883881332461</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="5"/>
+        <v>46.781744843632922</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <v>48</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="2"/>
+        <v>46.781744843632922</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="3"/>
+        <v>146.96918592286937</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54508999921613743</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="5"/>
+        <v>25.891774962766529</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <v>49</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="2"/>
+        <v>25.891774962766529</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="3"/>
+        <v>81.34141001142747</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98860295102995033</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="5"/>
+        <v>46.958640173922639</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <v>50</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="2"/>
+        <v>46.958640173922639</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="3"/>
+        <v>147.52491899296189</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="4"/>
+        <v>0.53693275102203497</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="5"/>
+        <v>25.504305673546661</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <v>51</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="2"/>
+        <v>25.504305673546661</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="3"/>
+        <v>80.124139338922674</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="4"/>
+        <v>0.9851816743341919</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="5"/>
+        <v>46.796129530874119</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <v>52</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="2"/>
+        <v>46.796129530874119</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="3"/>
+        <v>147.0143767506305</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54442857728204652</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="5"/>
+        <v>25.860357420897209</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <v>53</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="2"/>
+        <v>25.860357420897209</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="3"/>
+        <v>81.242708892696967</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98834214418197341</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="5"/>
+        <v>46.94625184864374</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <v>54</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="2"/>
+        <v>46.94625184864374</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="3"/>
+        <v>147.48599992127541</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="4"/>
+        <v>0.53750567287025131</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="5"/>
+        <v>25.531519461336938</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
+        <v>55</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="2"/>
+        <v>25.531519461336938</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="3"/>
+        <v>80.209633974720958</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98543650435790187</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="5"/>
+        <v>46.80823395700034</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <v>56</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="2"/>
+        <v>46.80823395700034</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="3"/>
+        <v>147.05240392682455</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54387174155083018</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="5"/>
+        <v>25.833907723664435</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
+        <v>57</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="2"/>
+        <v>25.833907723664435</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="3"/>
+        <v>81.159614718180805</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98812030296301279</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="5"/>
+        <v>46.935714390743108</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>58</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="2"/>
+        <v>46.935714390743108</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="3"/>
+        <v>147.45289552094729</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5379928026247226</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="5"/>
+        <v>25.554658124674322</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>59</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="2"/>
+        <v>25.554658124674322</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="3"/>
+        <v>80.282326229475572</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98565144903586033</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="5"/>
+        <v>46.818443829203368</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>60</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="2"/>
+        <v>46.818443829203368</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="3"/>
+        <v>147.08447918633169</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54340187405683726</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="5"/>
+        <v>25.81158901769977</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
+        <v>61</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C106" si="6">F66</f>
+        <v>25.81158901769977</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="3"/>
+        <v>81.089498435484586</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67:E106" si="7">SIN(C$3*D67)</f>
+        <v>0.9879314927911399</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F106" si="8">E67*C$1</f>
+        <v>46.926745907579146</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="2">
+        <v>62</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="6"/>
+        <v>46.926745907579146</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="3"/>
+        <v>147.42472020012553</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="7"/>
+        <v>0.53840725972608749</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="8"/>
+        <v>25.574344836989155</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
+        <v>63</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="6"/>
+        <v>25.574344836989155</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="3"/>
+        <v>80.344173860257186</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="7"/>
+        <v>0.9858330779451725</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="8"/>
+        <v>46.827071202395693</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="2">
+        <v>64</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="6"/>
+        <v>46.827071202395693</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="3"/>
+        <v>147.11158287857248</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54300470183135752</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="8"/>
+        <v>25.792723336989482</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="2">
+        <v>65</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="6"/>
+        <v>25.792723336989482</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="3"/>
+        <v>81.030230151560175</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98777074039215973</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="8"/>
+        <v>46.91911016862759</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="2">
+        <v>66</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="6"/>
+        <v>46.91911016862759</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="3"/>
+        <v>147.40073181873061</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="7"/>
+        <v>0.53876002461635941</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="8"/>
+        <v>25.591101169277071</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="2">
+        <v>67</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="6"/>
+        <v>25.591101169277071</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="3"/>
+        <v>80.39681543067401</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98598676633710491</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="8"/>
+        <v>46.834371401012483</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="2">
+        <v>68</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="6"/>
+        <v>46.834371401012483</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="3"/>
+        <v>147.13451712891671</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54266853288146188</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="8"/>
+        <v>25.77675531186944</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="2">
+        <v>69</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" si="6"/>
+        <v>25.77675531186944</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="3"/>
+        <v>80.980065121150716</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98763385268451742</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="8"/>
+        <v>46.912608002514574</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="2">
+        <v>70</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="6"/>
+        <v>46.912608002514574</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="3"/>
+        <v>147.38030466143752</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="7"/>
+        <v>0.53906034492194688</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="8"/>
+        <v>25.605366383792475</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="2">
+        <v>71</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="6"/>
+        <v>25.605366383792475</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="3"/>
+        <v>80.44163092379749</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98611695040463565</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="8"/>
+        <v>46.840555144220197</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="2">
+        <v>72</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="6"/>
+        <v>46.840555144220197</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="3"/>
+        <v>147.15394393114977</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54238370788773271</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="8"/>
+        <v>25.763226124667305</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="2">
+        <v>73</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="6"/>
+        <v>25.763226124667305</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="3"/>
+        <v>80.937561926027442</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98751727970833081</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="8"/>
+        <v>46.907070786145717</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="2">
+        <v>74</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="6"/>
+        <v>46.907070786145717</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="3"/>
+        <v>147.36290898317179</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="7"/>
+        <v>0.53931604236851227</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="8"/>
+        <v>25.617512012504331</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
+        <v>75</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="6"/>
+        <v>25.617512012504331</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="3"/>
+        <v>80.479787541731881</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="7"/>
+        <v>0.9862273156717728</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="8"/>
+        <v>46.845797494409204</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="2">
+        <v>76</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" si="6"/>
+        <v>46.845797494409204</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="3"/>
+        <v>147.17041325999111</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54214219488869819</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="8"/>
+        <v>25.751754257213165</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="2">
+        <v>77</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" si="6"/>
+        <v>25.751754257213165</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="3"/>
+        <v>80.901521991510563</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98741800767595722</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="8"/>
+        <v>46.902355364607971</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="2">
+        <v>78</v>
+      </c>
+      <c r="C84" s="2">
+        <f t="shared" si="6"/>
+        <v>46.902355364607971</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="3"/>
+        <v>147.34809504951022</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="7"/>
+        <v>0.53953375179932084</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="8"/>
+        <v>25.627853210467741</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="2">
+        <v>79</v>
+      </c>
+      <c r="C85" s="2">
+        <f t="shared" si="6"/>
+        <v>25.627853210467741</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="3"/>
+        <v>80.512275373283046</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98632093963777445</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="8"/>
+        <v>46.850244632794286</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="2">
+        <v>80</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" si="6"/>
+        <v>46.850244632794286</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="3"/>
+        <v>147.18438435727117</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54193728186490431</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="8"/>
+        <v>25.742020888582953</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="2">
+        <v>81</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" si="6"/>
+        <v>25.742020888582953</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="3"/>
+        <v>80.8709437121272</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98733347341623712</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="8"/>
+        <v>46.898339987271264</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="2">
+        <v>82</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" si="6"/>
+        <v>46.898339987271264</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="3"/>
+        <v>147.33548036956785</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="7"/>
+        <v>0.53971911199168499</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="8"/>
+        <v>25.636657819605038</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="2">
+        <v>83</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" si="6"/>
+        <v>25.636657819605038</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="3"/>
+        <v>80.539935868666504</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98640040217371683</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="8"/>
+        <v>46.854019103251552</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="2">
+        <v>84</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" si="6"/>
+        <v>46.854019103251552</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="3"/>
+        <v>147.1962422059309</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54176333841726676</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="8"/>
+        <v>25.733758574820172</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="2">
+        <v>85</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="6"/>
+        <v>25.733758574820172</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" ref="D91:D106" si="9">C91*C$2</f>
+        <v>80.844986887908391</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98726149458236445</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="8"/>
+        <v>46.894920992662314</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="2">
+        <v>86</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" si="6"/>
+        <v>46.894920992662314</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="9"/>
+        <v>147.3247392812217</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="7"/>
+        <v>0.5398769209946177</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="8"/>
+        <v>25.644153747244342</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="2">
+        <v>87</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" si="6"/>
+        <v>25.644153747244342</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="9"/>
+        <v>80.563485019869987</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98646787254255863</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="8"/>
+        <v>46.857223945771537</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="2">
+        <v>88</v>
+      </c>
+      <c r="C94" s="2">
+        <f t="shared" si="6"/>
+        <v>46.857223945771537</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="9"/>
+        <v>147.2063105156476</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54161562760052817</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="8"/>
+        <v>25.726742311025088</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="2">
+        <v>89</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" si="6"/>
+        <v>25.726742311025088</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="9"/>
+        <v>80.82294464511412</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98720021187573703</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="8"/>
+        <v>46.892010064097512</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="2">
+        <v>90</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" si="6"/>
+        <v>46.892010064097512</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="9"/>
+        <v>147.3155943294274</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54001126446719006</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="8"/>
+        <v>25.650535062191526</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="2">
+        <v>91</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="6"/>
+        <v>25.650535062191526</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="9"/>
+        <v>80.583532512028299</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98652517903680925</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="8"/>
+        <v>46.859946004248442</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="2">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" si="6"/>
+        <v>46.859946004248442</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="9"/>
+        <v>147.2148621145613</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54149015510833898</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="8"/>
+        <v>25.720782367646102</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="2">
+        <v>93</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" si="6"/>
+        <v>25.720782367646102</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="9"/>
+        <v>80.804220930778882</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98714804070384676</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="8"/>
+        <v>46.889531933432721</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="2">
+        <v>94</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" si="6"/>
+        <v>46.889531933432721</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="9"/>
+        <v>147.30780905233624</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54012562286347277</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="8"/>
+        <v>25.655967086014957</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="2">
+        <v>95</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" si="6"/>
+        <v>25.655967086014957</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="9"/>
+        <v>80.600597718166128</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98657386539422187</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="8"/>
+        <v>46.862258606225538</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="2">
+        <v>96</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="6"/>
+        <v>46.862258606225538</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="9"/>
+        <v>147.22212736794322</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54138354691673596</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="8"/>
+        <v>25.715718478544957</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="2">
+        <v>97</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" si="6"/>
+        <v>25.715718478544957</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="9"/>
+        <v>80.788312253980124</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98710363042741867</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="8"/>
+        <v>46.887422445302384</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" s="2">
+        <v>98</v>
+      </c>
+      <c r="C104" s="2">
+        <f t="shared" si="6"/>
+        <v>46.887422445302384</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="9"/>
+        <v>147.30118189992314</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54022296164036376</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="8"/>
+        <v>25.660590677917277</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="2">
+        <v>99</v>
+      </c>
+      <c r="C105" s="2">
+        <f t="shared" si="6"/>
+        <v>25.660590677917277</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" si="9"/>
+        <v>80.615123160519644</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="7"/>
+        <v>0.98661523695502151</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="8"/>
+        <v>46.864223755363518</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" s="2">
+        <v>100</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" si="6"/>
+        <v>46.864223755363518</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="9"/>
+        <v>147.22830106603828</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54129294904501601</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="8"/>
+        <v>25.711415079638261</v>
       </c>
     </row>
   </sheetData>
